--- a/xlsx/AK400G2换扇.xlsx
+++ b/xlsx/AK400G2换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708EAE80-723E-5741-9078-6A90F5F66EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C12F8-C4A1-E049-A8F9-54C33089A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2240" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -897,6 +897,15 @@
       <c r="F4">
         <v>1772</v>
       </c>
+      <c r="M4">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <v>56.1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="P4">
         <v>39</v>
       </c>
@@ -927,6 +936,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="Y1:AA1"/>
@@ -934,16 +953,6 @@
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/AK400G2换扇.xlsx
+++ b/xlsx/AK400G2换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C12F8-C4A1-E049-A8F9-54C33089A39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76198C-62E3-E14F-A4EE-FB786F6436BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2240" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -897,15 +897,6 @@
       <c r="F4">
         <v>1772</v>
       </c>
-      <c r="M4">
-        <v>39</v>
-      </c>
-      <c r="N4">
-        <v>56.1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>39</v>
       </c>
@@ -936,16 +927,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="Y1:AA1"/>
@@ -953,6 +934,16 @@
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
